--- a/src/test/resources/file-every-cell-types.xlsx
+++ b/src/test/resources/file-every-cell-types.xlsx
@@ -29,8 +29,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="&quot;VRAI&quot;;&quot;VRAI&quot;;&quot;FAUX&quot;"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -102,7 +103,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -123,10 +124,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -138,7 +139,7 @@
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="n">
+      <c r="B1" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="n">
@@ -156,6 +157,9 @@
         <f aca="false">1/0</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="G1" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
